--- a/data/trans_orig/P1405-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>11613</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5315</v>
+        <v>6202</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21258</v>
+        <v>21229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01191480242362499</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005452823506223134</v>
+        <v>0.006363176393198874</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02181110534545626</v>
+        <v>0.02178098352981207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -763,19 +763,19 @@
         <v>33273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22511</v>
+        <v>22534</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45941</v>
+        <v>46093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02489316677932808</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01684174340424621</v>
+        <v>0.01685938590720049</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03437096327175927</v>
+        <v>0.03448481288670574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -784,19 +784,19 @@
         <v>44885</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32450</v>
+        <v>32215</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>60381</v>
+        <v>60117</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01942026898658183</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0140400195326189</v>
+        <v>0.01393839883828307</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02612487803279851</v>
+        <v>0.02601031907816691</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>963030</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>953385</v>
+        <v>953414</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>969328</v>
+        <v>968441</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.988085197576375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9781888946545436</v>
+        <v>0.9782190164701878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9945471764937769</v>
+        <v>0.9936368236068011</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1215</v>
@@ -834,19 +834,19 @@
         <v>1303341</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1290673</v>
+        <v>1290521</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1314103</v>
+        <v>1314080</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9751068332206719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9656290367282404</v>
+        <v>0.9655151871132941</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9831582565957537</v>
+        <v>0.9831406140927994</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2113</v>
@@ -855,19 +855,19 @@
         <v>2266372</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2250876</v>
+        <v>2251140</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2278807</v>
+        <v>2279042</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9805797310134181</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9738751219672016</v>
+        <v>0.9739896809218332</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9859599804673811</v>
+        <v>0.9860616011617169</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>14192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7175</v>
+        <v>7282</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24887</v>
+        <v>26305</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007226276529262561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003653554794026184</v>
+        <v>0.003708018494981654</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01267192153887679</v>
+        <v>0.01339369327170941</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>18</v>
@@ -980,19 +980,19 @@
         <v>21048</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12439</v>
+        <v>12892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32214</v>
+        <v>33758</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0119962251263489</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007089136168157157</v>
+        <v>0.007347389285565625</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01836003094411003</v>
+        <v>0.01923979832004787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>30</v>
@@ -1001,19 +1001,19 @@
         <v>35241</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>23475</v>
+        <v>23252</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50828</v>
+        <v>51293</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009476969679736524</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006313065740655541</v>
+        <v>0.006252894086019224</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0136687108164145</v>
+        <v>0.01379378532728993</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>1949765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1939070</v>
+        <v>1937652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1956782</v>
+        <v>1956675</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9927737234707374</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9873280784611232</v>
+        <v>0.9866063067282905</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963464452059738</v>
+        <v>0.9962919815050183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1615</v>
@@ -1051,19 +1051,19 @@
         <v>1733544</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1722378</v>
+        <v>1720834</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1742153</v>
+        <v>1741700</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9880037748736511</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9816399690558897</v>
+        <v>0.980760201679952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9929108638318428</v>
+        <v>0.9926526107144343</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3459</v>
@@ -1072,19 +1072,19 @@
         <v>3683308</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3667721</v>
+        <v>3667256</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3695074</v>
+        <v>3695297</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9905230303202635</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9863312891835855</v>
+        <v>0.9862062146727099</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9936869342593443</v>
+        <v>0.9937471059139807</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>2960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>966</v>
+        <v>930</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8073</v>
+        <v>8184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006152108453466499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002007793956435434</v>
+        <v>0.001932312502347446</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01677752309254564</v>
+        <v>0.01700727250011492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -1197,19 +1197,19 @@
         <v>7300</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2990</v>
+        <v>2719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16101</v>
+        <v>15278</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01591694689990283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006519748747346121</v>
+        <v>0.005927778170073136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03510751694153758</v>
+        <v>0.0333122606194961</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1218,19 +1218,19 @@
         <v>10260</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4972</v>
+        <v>4756</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>20039</v>
+        <v>18999</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01091737637306138</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005290849287021004</v>
+        <v>0.005060476563269982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02132243409908448</v>
+        <v>0.02021605288937387</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>478221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>473108</v>
+        <v>472997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>480215</v>
+        <v>480251</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9938478915465335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9832224769074543</v>
+        <v>0.982992727499885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9979922060435646</v>
+        <v>0.9980676874976525</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -1268,19 +1268,19 @@
         <v>451331</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442530</v>
+        <v>443353</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>455641</v>
+        <v>455912</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9840830531000971</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9648924830584625</v>
+        <v>0.966687739380503</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993480251252654</v>
+        <v>0.9940722218299268</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>841</v>
@@ -1289,19 +1289,19 @@
         <v>929553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>919774</v>
+        <v>920814</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>934841</v>
+        <v>935057</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9890826236269387</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9786775659009153</v>
+        <v>0.9797839471106262</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9947091507129789</v>
+        <v>0.9949395234367301</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>28765</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18618</v>
+        <v>19078</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42529</v>
+        <v>43297</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00841137237183855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005444179416184624</v>
+        <v>0.005578598772898794</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01243624308297498</v>
+        <v>0.01266072769147279</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -1414,19 +1414,19 @@
         <v>61621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46781</v>
+        <v>47341</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80318</v>
+        <v>80327</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01735883624673633</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01317829122749553</v>
+        <v>0.01333613899400665</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02262570999447694</v>
+        <v>0.0226283675692907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -1435,19 +1435,19 @@
         <v>90386</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71991</v>
+        <v>73008</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111713</v>
+        <v>116764</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01296858538309024</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01032922257374326</v>
+        <v>0.01047515326302653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01602863496635091</v>
+        <v>0.01675331198948207</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>3391017</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3377253</v>
+        <v>3376485</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3401164</v>
+        <v>3400704</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9915886276281615</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.987563756917025</v>
+        <v>0.9873392723085272</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9945558205838154</v>
+        <v>0.9944214012271009</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3236</v>
@@ -1485,19 +1485,19 @@
         <v>3488216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3469519</v>
+        <v>3469510</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3503056</v>
+        <v>3502496</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9826411637532637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9773742900055231</v>
+        <v>0.9773716324307095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868217087725044</v>
+        <v>0.9866638610059935</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6413</v>
@@ -1506,19 +1506,19 @@
         <v>6879233</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6857906</v>
+        <v>6852855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6897628</v>
+        <v>6896611</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870314146169098</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9839713650336497</v>
+        <v>0.9832466880105178</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.989670777426257</v>
+        <v>0.9895248467369735</v>
       </c>
     </row>
     <row r="15">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7532</v>
+        <v>7579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002827430149167098</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.009984449914768604</v>
+        <v>0.01004740743604983</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -1870,19 +1870,19 @@
         <v>25866</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17171</v>
+        <v>16940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39440</v>
+        <v>42189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02600516152350685</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01726285825449835</v>
+        <v>0.01703136002869365</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03965155374648362</v>
+        <v>0.0424153972651846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -1891,19 +1891,19 @@
         <v>27999</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18552</v>
+        <v>17952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41459</v>
+        <v>40743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0160086049212799</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01060705870588156</v>
+        <v>0.0102641868658922</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02370447308717508</v>
+        <v>0.02329489465191593</v>
       </c>
     </row>
     <row r="5">
@@ -1920,7 +1920,7 @@
         <v>752214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>746815</v>
+        <v>746768</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>754347</v>
@@ -1929,7 +1929,7 @@
         <v>0.9971725698508329</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9900155500852313</v>
+        <v>0.9899525925639503</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1941,19 +1941,19 @@
         <v>968794</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>955220</v>
+        <v>952471</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>977489</v>
+        <v>977720</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9739948384764932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9603484462535157</v>
+        <v>0.9575846027348149</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9827371417455013</v>
+        <v>0.9829686399713063</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1630</v>
@@ -1962,19 +1962,19 @@
         <v>1721008</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1707548</v>
+        <v>1708264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1730455</v>
+        <v>1731055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9839913950787201</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.976295526912825</v>
+        <v>0.9767051053480841</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9893929412941185</v>
+        <v>0.9897358131341079</v>
       </c>
     </row>
     <row r="6">
@@ -2066,19 +2066,19 @@
         <v>17481</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10692</v>
+        <v>10712</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28488</v>
+        <v>29069</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008418792589410128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005149221262965944</v>
+        <v>0.005158780412527468</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01372012257139073</v>
+        <v>0.01399982286890703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>26</v>
@@ -2087,19 +2087,19 @@
         <v>26635</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18621</v>
+        <v>18563</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39228</v>
+        <v>38970</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01339564121195679</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009365528671472133</v>
+        <v>0.009336188706115337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01972932532210346</v>
+        <v>0.01959959969821587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -2108,19 +2108,19 @@
         <v>44115</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32661</v>
+        <v>32580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59466</v>
+        <v>60472</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01085329080144136</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008035244134280684</v>
+        <v>0.00801541000253859</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01462999322094465</v>
+        <v>0.01487731748231178</v>
       </c>
     </row>
     <row r="8">
@@ -2137,19 +2137,19 @@
         <v>2058904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2047897</v>
+        <v>2047316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2065693</v>
+        <v>2065673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9915812074105899</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9862798774286093</v>
+        <v>0.9860001771310929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9948507787370341</v>
+        <v>0.9948412195874725</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1882</v>
@@ -2158,19 +2158,19 @@
         <v>1961665</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1949072</v>
+        <v>1949330</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1969679</v>
+        <v>1969737</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9866043587880432</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9802706746778966</v>
+        <v>0.9804004003017841</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9906344713285279</v>
+        <v>0.9906638112938847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3818</v>
@@ -2179,19 +2179,19 @@
         <v>4020570</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4005219</v>
+        <v>4004213</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4032024</v>
+        <v>4032105</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9891467091985586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9853700067790553</v>
+        <v>0.9851226825176883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9919647558657192</v>
+        <v>0.9919845899974614</v>
       </c>
     </row>
     <row r="9">
@@ -2283,19 +2283,19 @@
         <v>4526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12642</v>
+        <v>13031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008276180706052979</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001862882446189126</v>
+        <v>0.00185705823243499</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02311548217000959</v>
+        <v>0.02382824298165594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -2304,19 +2304,19 @@
         <v>3231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8889</v>
+        <v>8806</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.005884537373901607</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001874474967050003</v>
+        <v>0.001849899123172429</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01618671972552893</v>
+        <v>0.01603624202109388</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -2325,19 +2325,19 @@
         <v>7758</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2789</v>
+        <v>3108</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16370</v>
+        <v>17356</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007077899653170319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002545010852949578</v>
+        <v>0.002835308000819404</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01493600198752605</v>
+        <v>0.01583560839745089</v>
       </c>
     </row>
     <row r="11">
@@ -2354,19 +2354,19 @@
         <v>542360</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>534244</v>
+        <v>533855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>545867</v>
+        <v>545870</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.991723819293947</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9768845178299904</v>
+        <v>0.9761717570183442</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9981371175538108</v>
+        <v>0.998142941767565</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>523</v>
@@ -2375,19 +2375,19 @@
         <v>545909</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>540251</v>
+        <v>540334</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>548111</v>
+        <v>548124</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9941154626260984</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.983813280274471</v>
+        <v>0.9839637579789061</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.99812552503295</v>
+        <v>0.9981501008768275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1021</v>
@@ -2396,19 +2396,19 @@
         <v>1088269</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1079657</v>
+        <v>1078671</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1093238</v>
+        <v>1092919</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9929221003468297</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.985063998012474</v>
+        <v>0.9841643916025492</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9974549891470504</v>
+        <v>0.9971646919991806</v>
       </c>
     </row>
     <row r="12">
@@ -2500,19 +2500,19 @@
         <v>24140</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15666</v>
+        <v>15396</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36916</v>
+        <v>37066</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007146943943976749</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004638173321832708</v>
+        <v>0.004558228412192657</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01092967653268331</v>
+        <v>0.01097397761428946</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -2521,19 +2521,19 @@
         <v>55732</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>41608</v>
+        <v>41811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72397</v>
+        <v>73640</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01577879459170126</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01177992805819334</v>
+        <v>0.01183747213203638</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02049679804417522</v>
+        <v>0.02084868690801421</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>72</v>
@@ -2542,19 +2542,19 @@
         <v>79872</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62842</v>
+        <v>63978</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>100207</v>
+        <v>101938</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01155936170195654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.009094687339671031</v>
+        <v>0.009259179345004193</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01450233870378611</v>
+        <v>0.01475287240761042</v>
       </c>
     </row>
     <row r="14">
@@ -2571,19 +2571,19 @@
         <v>3353478</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3340702</v>
+        <v>3340552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3361952</v>
+        <v>3362222</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9928530560560233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9890703234673166</v>
+        <v>0.9890260223857105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9953618266781673</v>
+        <v>0.9954417715878072</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3275</v>
@@ -2592,19 +2592,19 @@
         <v>3476368</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3459703</v>
+        <v>3458460</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3490492</v>
+        <v>3490289</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9842212054082987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.979503201955825</v>
+        <v>0.9791513130919861</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9882200719418066</v>
+        <v>0.9881625278679638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6469</v>
@@ -2613,19 +2613,19 @@
         <v>6829846</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6809511</v>
+        <v>6807780</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6846876</v>
+        <v>6845740</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9884406382980434</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9854976612962139</v>
+        <v>0.9852471275923904</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.990905312660329</v>
+        <v>0.9907408206549959</v>
       </c>
     </row>
     <row r="15">
